--- a/predicciones_produccion.xlsx
+++ b/predicciones_produccion.xlsx
@@ -471,19 +471,19 @@
         <v>45931</v>
       </c>
       <c r="B2" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C2" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D2" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E2" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F2" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
     <row r="3">
@@ -491,19 +491,19 @@
         <v>45962</v>
       </c>
       <c r="B3" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C3" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D3" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E3" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F3" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>45992</v>
       </c>
       <c r="B4" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C4" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D4" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E4" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F4" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
     <row r="5">
@@ -531,19 +531,19 @@
         <v>46023</v>
       </c>
       <c r="B5" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C5" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D5" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E5" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F5" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         <v>46054</v>
       </c>
       <c r="B6" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C6" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D6" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E6" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F6" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
         <v>46082</v>
       </c>
       <c r="B7" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="C7" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="D7" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="E7" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
       <c r="F7" t="n">
-        <v>9088615.515252177</v>
+        <v>8850211.927541619</v>
       </c>
     </row>
   </sheetData>

--- a/predicciones_produccion.xlsx
+++ b/predicciones_produccion.xlsx
@@ -471,19 +471,19 @@
         <v>45931</v>
       </c>
       <c r="B2" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C2" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D2" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E2" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F2" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
     <row r="3">
@@ -491,19 +491,19 @@
         <v>45962</v>
       </c>
       <c r="B3" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C3" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D3" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E3" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F3" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>45992</v>
       </c>
       <c r="B4" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C4" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D4" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E4" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F4" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
     <row r="5">
@@ -531,19 +531,19 @@
         <v>46023</v>
       </c>
       <c r="B5" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C5" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D5" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E5" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F5" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         <v>46054</v>
       </c>
       <c r="B6" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C6" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D6" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E6" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F6" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
         <v>46082</v>
       </c>
       <c r="B7" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="C7" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="D7" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="E7" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
       <c r="F7" t="n">
-        <v>8850211.927541619</v>
+        <v>9241454.34912899</v>
       </c>
     </row>
   </sheetData>

--- a/predicciones_produccion.xlsx
+++ b/predicciones_produccion.xlsx
@@ -471,19 +471,19 @@
         <v>45931</v>
       </c>
       <c r="B2" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C2" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D2" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E2" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F2" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
     <row r="3">
@@ -491,19 +491,19 @@
         <v>45962</v>
       </c>
       <c r="B3" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C3" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D3" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E3" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F3" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>45992</v>
       </c>
       <c r="B4" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C4" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D4" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E4" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F4" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
     <row r="5">
@@ -531,19 +531,19 @@
         <v>46023</v>
       </c>
       <c r="B5" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C5" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D5" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E5" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F5" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         <v>46054</v>
       </c>
       <c r="B6" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C6" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D6" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E6" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F6" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
         <v>46082</v>
       </c>
       <c r="B7" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="C7" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="D7" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="E7" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
       <c r="F7" t="n">
-        <v>9241454.34912899</v>
+        <v>9260251.38139425</v>
       </c>
     </row>
   </sheetData>

--- a/predicciones_produccion.xlsx
+++ b/predicciones_produccion.xlsx
@@ -471,19 +471,19 @@
         <v>45931</v>
       </c>
       <c r="B2" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C2" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D2" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E2" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F2" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
     <row r="3">
@@ -491,19 +491,19 @@
         <v>45962</v>
       </c>
       <c r="B3" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C3" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D3" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E3" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F3" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>45992</v>
       </c>
       <c r="B4" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C4" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D4" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E4" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F4" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
     <row r="5">
@@ -531,19 +531,19 @@
         <v>46023</v>
       </c>
       <c r="B5" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C5" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D5" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E5" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F5" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         <v>46054</v>
       </c>
       <c r="B6" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C6" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D6" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E6" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F6" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
         <v>46082</v>
       </c>
       <c r="B7" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="C7" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="D7" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="E7" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
       <c r="F7" t="n">
-        <v>9260251.38139425</v>
+        <v>9255921.002451137</v>
       </c>
     </row>
   </sheetData>
